--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -22,10 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -65,14 +64,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,11 +622,10 @@
           <t>Miró</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>45075</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>24059</v>
       </c>
     </row>
@@ -646,13 +645,12 @@
           <t>Alberola</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>grupo3</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>23954</v>
       </c>
     </row>
@@ -672,11 +670,10 @@
           <t>Puig</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>45234</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>22178</v>
       </c>
     </row>
@@ -696,11 +693,10 @@
           <t>Vilalta</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>45181</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>29917</v>
       </c>
     </row>
@@ -720,13 +716,12 @@
           <t>Rovira</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>grupo4</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>16892</v>
       </c>
     </row>
@@ -746,13 +741,12 @@
           <t>Torre</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>grupo1</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>15088</v>
       </c>
     </row>
@@ -772,11 +766,10 @@
           <t>Viñas</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>44960</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>15733</v>
       </c>
     </row>
@@ -796,11 +789,10 @@
           <t>Rivas</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>45118</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>34574</v>
       </c>
     </row>
@@ -820,13 +812,12 @@
           <t>Perera</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>grupo3</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>29294</v>
       </c>
     </row>
@@ -846,13 +837,12 @@
           <t>Viana</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>grupo4</t>
         </is>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>17860</v>
       </c>
     </row>
@@ -872,13 +862,12 @@
           <t>Antón</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>grupo1</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>35220</v>
       </c>
     </row>
@@ -898,13 +887,12 @@
           <t>Escudero</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>grupo2</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>19456</v>
       </c>
     </row>
@@ -924,13 +912,12 @@
           <t>Blanch</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>grupo4</t>
         </is>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>18135</v>
       </c>
     </row>
@@ -950,13 +937,12 @@
           <t>Torrens</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>grupo3</t>
         </is>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>22429</v>
       </c>
     </row>
@@ -976,11 +962,10 @@
           <t>Juárez</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>45141</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>25593</v>
       </c>
     </row>
@@ -1000,13 +985,12 @@
           <t>Domínguez</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>grupo2</t>
         </is>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>23921</v>
       </c>
     </row>
@@ -1026,13 +1010,12 @@
           <t>Nadal</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>grupo4</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>28336</v>
       </c>
     </row>
@@ -1052,13 +1035,12 @@
           <t>Navas</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>grupo2</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>23644</v>
       </c>
     </row>
@@ -1078,13 +1060,12 @@
           <t>Posada</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>grupo3</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>22796</v>
       </c>
     </row>
@@ -1104,13 +1085,12 @@
           <t>Beltrán</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>grupo1</t>
         </is>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>32996</v>
       </c>
     </row>
@@ -1206,7 +1186,7 @@
           <t>Nadal</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>21611</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -1214,10 +1194,9 @@
           <t>+34948 125 310</t>
         </is>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>44476</v>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>daniel45</t>
@@ -1253,7 +1232,7 @@
           <t>Navas</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>13053</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -1261,10 +1240,9 @@
           <t>+34984 684 246</t>
         </is>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>44639</v>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>aranzazuamo</t>
@@ -1300,7 +1278,7 @@
           <t>Posada</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>24752</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -1308,10 +1286,9 @@
           <t>+34928 28 58 12</t>
         </is>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>44442</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>mireia27</t>
@@ -1347,7 +1324,7 @@
           <t>Beltrán</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>29509</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -1355,10 +1332,9 @@
           <t>+34942 60 27 05</t>
         </is>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>44289</v>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>severinogirona</t>
@@ -1394,7 +1370,7 @@
           <t>Saura</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>25526</v>
       </c>
       <c r="E6" t="inlineStr">
@@ -1402,10 +1378,9 @@
           <t>+34972746028</t>
         </is>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>44441</v>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>jportillo</t>
@@ -1441,7 +1416,7 @@
           <t>Ponce</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>33596</v>
       </c>
       <c r="E7" t="inlineStr">
@@ -1449,10 +1424,10 @@
           <t>+34 921 88 82 58</t>
         </is>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>44909</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>44976</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -1490,7 +1465,7 @@
           <t>Navarrete</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>32905</v>
       </c>
       <c r="E8" t="inlineStr">
@@ -1498,10 +1473,9 @@
           <t>+34826 85 39 51</t>
         </is>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>44452</v>
       </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>sarnau</t>
@@ -1537,7 +1511,7 @@
           <t>Alegre</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>12026</v>
       </c>
       <c r="E9" t="inlineStr">
@@ -1545,10 +1519,10 @@
           <t>+34 885 83 35 46</t>
         </is>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <v>44538</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>45163</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -1586,7 +1560,7 @@
           <t>Fajardo</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>17408</v>
       </c>
       <c r="E10" t="inlineStr">
@@ -1594,10 +1568,9 @@
           <t>+34 803 81 38 30</t>
         </is>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <v>44423</v>
       </c>
-      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>domingosegui</t>
@@ -1633,7 +1606,7 @@
           <t>Borja</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>15121</v>
       </c>
       <c r="E11" t="inlineStr">
@@ -1641,10 +1614,9 @@
           <t>+34 872 493 195</t>
         </is>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>44570</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>carmina90</t>
@@ -1680,7 +1652,7 @@
           <t>Parra</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>37377</v>
       </c>
       <c r="E12" t="inlineStr">
@@ -1688,10 +1660,9 @@
           <t>+34 823588282</t>
         </is>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>44298</v>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>wvinas</t>
@@ -1727,7 +1698,7 @@
           <t>Alberto</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>29659</v>
       </c>
       <c r="E13" t="inlineStr">
@@ -1735,10 +1706,9 @@
           <t>+34978 760 497</t>
         </is>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>44596</v>
       </c>
-      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>primitivo36</t>
@@ -1774,7 +1744,7 @@
           <t>Ortiz</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>16422</v>
       </c>
       <c r="E14" t="inlineStr">
@@ -1782,10 +1752,9 @@
           <t>+34 924 638 290</t>
         </is>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>44357</v>
       </c>
-      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>camachoapolonia</t>
@@ -1821,7 +1790,7 @@
           <t>Grande</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>16130</v>
       </c>
       <c r="E15" t="inlineStr">
@@ -1829,10 +1798,10 @@
           <t>+34 980 59 10 57</t>
         </is>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>44483</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>45224</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -1870,7 +1839,7 @@
           <t>Ramirez</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>33543</v>
       </c>
       <c r="E16" t="inlineStr">
@@ -1878,10 +1847,10 @@
           <t>+34927655375</t>
         </is>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>44768</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>45221</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -1919,7 +1888,7 @@
           <t>Vallejo</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>12434</v>
       </c>
       <c r="E17" t="inlineStr">
@@ -1927,10 +1896,10 @@
           <t>+34871 26 06 68</t>
         </is>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>44311</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>45211</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -1968,7 +1937,7 @@
           <t>Barreda</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>38643</v>
       </c>
       <c r="E18" t="inlineStr">
@@ -1976,10 +1945,10 @@
           <t>+34 884286514</t>
         </is>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>44836</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>45049</v>
       </c>
       <c r="H18" t="inlineStr">
@@ -2017,7 +1986,7 @@
           <t>Maestre</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>30772</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -2025,10 +1994,10 @@
           <t>+34834 89 50 60</t>
         </is>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>44455</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>45151</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -2066,7 +2035,7 @@
           <t>Uría</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>15661</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -2074,10 +2043,9 @@
           <t>+34 943417953</t>
         </is>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>44356</v>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>anacleto12</t>
@@ -2113,7 +2081,7 @@
           <t>Guijarro</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>32102</v>
       </c>
       <c r="E21" t="inlineStr">
@@ -2121,10 +2089,9 @@
           <t>+34 972 479 953</t>
         </is>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>44893</v>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>zacariasros</t>
@@ -2160,7 +2127,7 @@
           <t>Tomás</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>13457</v>
       </c>
       <c r="E22" t="inlineStr">
@@ -2168,10 +2135,9 @@
           <t>+34973894502</t>
         </is>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <v>44695</v>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>giselaquiroga</t>
@@ -2207,7 +2173,7 @@
           <t>Elías</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>28038</v>
       </c>
       <c r="E23" t="inlineStr">
@@ -2215,10 +2181,9 @@
           <t>+34 841 067 278</t>
         </is>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>44576</v>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>barberoevaristo</t>
@@ -2254,7 +2219,7 @@
           <t>Corral</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>25059</v>
       </c>
       <c r="E24" t="inlineStr">
@@ -2262,10 +2227,9 @@
           <t>+34 803782553</t>
         </is>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <v>44576</v>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>serrajosefa</t>
@@ -2301,7 +2265,7 @@
           <t>Sales</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>35497</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -2309,10 +2273,10 @@
           <t>+34 747 89 49 05</t>
         </is>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>44614</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <v>45207</v>
       </c>
       <c r="H25" t="inlineStr">
@@ -2350,7 +2314,7 @@
           <t>Pinedo</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>13650</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -2358,10 +2322,9 @@
           <t>+34942 31 44 26</t>
         </is>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>44309</v>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>palomarvalerio</t>
@@ -2372,7 +2335,6 @@
           <t>12850244S</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>R4*kL@z9Jt</t>
@@ -2395,7 +2357,7 @@
           <t>Serra</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>28653</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -2403,10 +2365,10 @@
           <t>+34 927 609 072</t>
         </is>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>44880</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <v>45240</v>
       </c>
       <c r="H27" t="inlineStr">
@@ -2444,7 +2406,7 @@
           <t>Arregui</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>32592</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -2452,10 +2414,9 @@
           <t>+34872048283</t>
         </is>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="5" t="n">
         <v>44509</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>milagrosrosado</t>
@@ -2466,7 +2427,6 @@
           <t>99541769J</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>P2&amp;mN5@kL6</t>
@@ -2489,7 +2449,7 @@
           <t>Agustín</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>29326</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -2497,10 +2457,10 @@
           <t>+34901773481</t>
         </is>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>44384</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <v>44953</v>
       </c>
       <c r="H29" t="inlineStr">
@@ -2538,7 +2498,7 @@
           <t>Cañizares</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>13191</v>
       </c>
       <c r="E30" t="inlineStr">
@@ -2546,10 +2506,9 @@
           <t>+34826 798 843</t>
         </is>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <v>44594</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>manzanaresnacio</t>
@@ -2560,7 +2519,6 @@
           <t>60885206I</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>5D@q7*j#rF</t>
@@ -2583,7 +2541,7 @@
           <t>Sastre</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>20154</v>
       </c>
       <c r="E31" t="inlineStr">
@@ -2591,10 +2549,9 @@
           <t>+34984 16 67 10</t>
         </is>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <v>44878</v>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>yojeda</t>
@@ -2605,7 +2562,6 @@
           <t>17028123R</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>x8&amp;m4#Pw!3</t>
@@ -2623,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2682,7 +2638,7 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>44976</v>
       </c>
       <c r="F2" t="n">
@@ -2708,7 +2664,7 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>45163</v>
       </c>
       <c r="F3" t="n">
@@ -2734,7 +2690,7 @@
       <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>45224</v>
       </c>
       <c r="F4" t="n">
@@ -2760,7 +2716,7 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>45221</v>
       </c>
       <c r="F5" t="n">
@@ -2786,7 +2742,7 @@
       <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>45211</v>
       </c>
       <c r="F6" t="n">
@@ -2812,7 +2768,7 @@
       <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>45049</v>
       </c>
       <c r="F7" t="n">
@@ -2838,7 +2794,7 @@
       <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>45151</v>
       </c>
       <c r="F8" t="n">
@@ -2864,7 +2820,7 @@
       <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>45207</v>
       </c>
       <c r="F9" t="n">
@@ -2890,7 +2846,7 @@
       <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>45240</v>
       </c>
       <c r="F10" t="n">
@@ -2916,7 +2872,7 @@
       <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>44953</v>
       </c>
       <c r="F11" t="n">
@@ -2942,7 +2898,7 @@
       <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>45265</v>
       </c>
       <c r="F12" t="n">
@@ -2968,7 +2924,7 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>44977</v>
       </c>
       <c r="F13" t="n">
@@ -2994,7 +2950,7 @@
       <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>44963</v>
       </c>
       <c r="F14" t="n">
@@ -3020,7 +2976,7 @@
       <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>45224</v>
       </c>
       <c r="F15" t="n">
@@ -3046,7 +3002,7 @@
       <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>45124</v>
       </c>
       <c r="F16" t="n">
@@ -3072,7 +3028,7 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>45166</v>
       </c>
       <c r="F17" t="n">
@@ -3098,7 +3054,7 @@
       <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>45187</v>
       </c>
       <c r="F18" t="n">
@@ -3124,7 +3080,7 @@
       <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>44996</v>
       </c>
       <c r="F19" t="n">
@@ -3150,7 +3106,7 @@
       <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>44938</v>
       </c>
       <c r="F20" t="n">
@@ -3176,7 +3132,7 @@
       <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>45101</v>
       </c>
       <c r="F21" t="n">
@@ -3202,7 +3158,7 @@
       <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>45125</v>
       </c>
       <c r="F22" t="n">
@@ -3228,7 +3184,7 @@
       <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>45092</v>
       </c>
       <c r="F23" t="n">
@@ -3254,7 +3210,7 @@
       <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>45240</v>
       </c>
       <c r="F24" t="n">
@@ -3280,7 +3236,7 @@
       <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>45052</v>
       </c>
       <c r="F25" t="n">
@@ -3306,7 +3262,7 @@
       <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>45071</v>
       </c>
       <c r="F26" t="n">
@@ -3332,7 +3288,7 @@
       <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>45287</v>
       </c>
       <c r="F27" t="n">
@@ -3368,6 +3324,28 @@
           <t>16:00</t>
         </is>
       </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>baja usuario</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cwee</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5469,7 +5447,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>45304</v>
       </c>
       <c r="D2" t="inlineStr">
@@ -5489,7 +5467,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>45419</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -5509,7 +5487,7 @@
           <t>actividad5</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>45373</v>
       </c>
       <c r="D4" t="inlineStr">
@@ -5529,7 +5507,7 @@
           <t>actividad3</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>45193</v>
       </c>
       <c r="D5" t="inlineStr">
@@ -5549,7 +5527,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>44902</v>
       </c>
       <c r="D6" t="inlineStr">
@@ -5569,7 +5547,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>45130</v>
       </c>
       <c r="D7" t="inlineStr">
@@ -5589,7 +5567,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>45083</v>
       </c>
       <c r="D8" t="inlineStr">
@@ -5609,7 +5587,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>45247</v>
       </c>
       <c r="D9" t="inlineStr">
@@ -5629,7 +5607,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>44905</v>
       </c>
       <c r="D10" t="inlineStr">
@@ -5649,7 +5627,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>45463</v>
       </c>
       <c r="D11" t="inlineStr">
@@ -5669,7 +5647,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>45316</v>
       </c>
       <c r="D12" t="inlineStr">
@@ -5689,7 +5667,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>45140</v>
       </c>
       <c r="D13" t="inlineStr">
@@ -5709,7 +5687,7 @@
           <t>actividad4</t>
         </is>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>45201</v>
       </c>
       <c r="D14" t="inlineStr">
@@ -5729,7 +5707,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>45150</v>
       </c>
       <c r="D15" t="inlineStr">
@@ -5749,7 +5727,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>44898</v>
       </c>
       <c r="D16" t="inlineStr">
@@ -5769,7 +5747,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>45376</v>
       </c>
       <c r="D17" t="inlineStr">
@@ -5789,7 +5767,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <v>45374</v>
       </c>
       <c r="D18" t="inlineStr">
@@ -5809,7 +5787,7 @@
           <t>actividad4</t>
         </is>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <v>45007</v>
       </c>
       <c r="D19" t="inlineStr">
@@ -5829,7 +5807,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <v>45566</v>
       </c>
       <c r="D20" t="inlineStr">
@@ -5849,7 +5827,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
@@ -5869,7 +5847,7 @@
           <t>actividad5</t>
         </is>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>44929</v>
       </c>
       <c r="D22" t="inlineStr">
@@ -5889,7 +5867,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <v>45437</v>
       </c>
       <c r="D23" t="inlineStr">
@@ -5909,7 +5887,7 @@
           <t>actividad4</t>
         </is>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <v>45555</v>
       </c>
       <c r="D24" t="inlineStr">
@@ -5929,7 +5907,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <v>45407</v>
       </c>
       <c r="D25" t="inlineStr">
@@ -5949,7 +5927,7 @@
           <t>actividad3</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <v>44991</v>
       </c>
       <c r="D26" t="inlineStr">
@@ -5969,7 +5947,7 @@
           <t>actividad3</t>
         </is>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="5" t="n">
         <v>45169</v>
       </c>
       <c r="D27" t="inlineStr">
@@ -5989,7 +5967,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="5" t="n">
         <v>45399</v>
       </c>
       <c r="D28" t="inlineStr">
@@ -6009,7 +5987,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="5" t="n">
         <v>45062</v>
       </c>
       <c r="D29" t="inlineStr">
@@ -6029,7 +6007,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="5" t="n">
         <v>45457</v>
       </c>
       <c r="D30" t="inlineStr">
@@ -6049,7 +6027,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="5" t="n">
         <v>44940</v>
       </c>
       <c r="D31" t="inlineStr">
@@ -6069,7 +6047,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="5" t="n">
         <v>45520</v>
       </c>
       <c r="D32" t="inlineStr">
@@ -6089,7 +6067,7 @@
           <t>actividad3</t>
         </is>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="5" t="n">
         <v>45562</v>
       </c>
       <c r="D33" t="inlineStr">
@@ -6109,7 +6087,7 @@
           <t>actividad8</t>
         </is>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="5" t="n">
         <v>45367</v>
       </c>
       <c r="D34" t="inlineStr">
@@ -6129,7 +6107,7 @@
           <t>actividad4</t>
         </is>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="5" t="n">
         <v>44924</v>
       </c>
       <c r="D35" t="inlineStr">
@@ -6149,7 +6127,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="5" t="n">
         <v>45468</v>
       </c>
       <c r="D36" t="inlineStr">
@@ -6169,7 +6147,7 @@
           <t>actividad5</t>
         </is>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="5" t="n">
         <v>45282</v>
       </c>
       <c r="D37" t="inlineStr">
@@ -6189,7 +6167,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="5" t="n">
         <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
@@ -6209,7 +6187,7 @@
           <t>actividad5</t>
         </is>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="5" t="n">
         <v>45297</v>
       </c>
       <c r="D39" t="inlineStr">
@@ -6229,7 +6207,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="5" t="n">
         <v>45117</v>
       </c>
       <c r="D40" t="inlineStr">
@@ -6249,7 +6227,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="5" t="n">
         <v>44993</v>
       </c>
       <c r="D41" t="inlineStr">
@@ -6269,7 +6247,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="5" t="n">
         <v>45589</v>
       </c>
       <c r="D42" t="inlineStr">
@@ -6289,7 +6267,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="5" t="n">
         <v>45389</v>
       </c>
       <c r="D43" t="inlineStr">
@@ -6309,7 +6287,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="5" t="n">
         <v>45479</v>
       </c>
       <c r="D44" t="inlineStr">
@@ -6329,7 +6307,7 @@
           <t>actividad6</t>
         </is>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="5" t="n">
         <v>45591</v>
       </c>
       <c r="D45" t="inlineStr">
@@ -6349,7 +6327,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="5" t="n">
         <v>45106</v>
       </c>
       <c r="D46" t="inlineStr">
@@ -6369,7 +6347,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="5" t="n">
         <v>45482</v>
       </c>
       <c r="D47" t="inlineStr">
@@ -6389,7 +6367,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="5" t="n">
         <v>45529</v>
       </c>
       <c r="D48" t="inlineStr">
@@ -6409,7 +6387,7 @@
           <t>actividad1</t>
         </is>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="5" t="n">
         <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
@@ -6429,7 +6407,7 @@
           <t>actividad7</t>
         </is>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="5" t="n">
         <v>45166</v>
       </c>
       <c r="D50" t="inlineStr">
@@ -6449,7 +6427,7 @@
           <t>actividad2</t>
         </is>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="5" t="n">
         <v>44978</v>
       </c>
       <c r="D51" t="inlineStr">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,6 +3212,36 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bteww</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,36 +3212,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>bteww</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3214,6 +3214,36 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>geerqg</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,66 +3185,6 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>baja usuario</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>veevq</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>17/10/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>geerqg</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>19/03/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,6 +3185,36 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g54ew4g4e</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,6 +3212,36 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>rgedqw</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3200,48 +3200,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>g54ew4g4e</t>
+          <t>rgedqw</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>27/03/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>rgedqw</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>27/03/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,36 +3185,6 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>rgedqw</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27/03/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,6 +3185,36 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>gtrewgw4r</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3214,6 +3214,36 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>poi</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3214,36 +3214,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>poi</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>03/04/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,36 +3185,6 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>gtrewgw4r</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,6 +3185,36 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>getwgb4t</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,36 +3185,6 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>getwgb4t</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3185,6 +3185,36 @@
       </c>
       <c r="F27" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ver</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,6 +3212,36 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ver</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3212,36 +3212,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ver</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>20/03/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,6 +3212,36 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ver</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2471,7 +2471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3204,44 +3204,14 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20/03/2024</t>
+          <t>22/03/2024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ver</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>29</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cambio medicación</t>
+          <t>Baja usuario</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -22,8 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -74,13 +75,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3195,25 +3197,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Baja usuario</t>
+          <t>Cambio medicación</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>hwrthwrthwrt</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>29</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22/03/2024</t>
-        </is>
+      <c r="E28" s="4" t="n">
+        <v>45379</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3197,23 +3197,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cambio medicación</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hwrthwrthwrt</t>
+          <t>seguir</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>29</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>45379</v>
+        <v>45377</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3212,6 +3212,34 @@
         <v>45377</v>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45378</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3197,19 +3197,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>seguir</t>
+          <t>frq3</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>29</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>45377</v>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>26/03/24</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3244,6 +3244,34 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>h4wh42h42h</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>31</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>45372</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3197,81 +3197,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cambio medicación</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>frq3</t>
+          <t>h</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>26/03/24</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45378</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45378</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>h4wh42h42h</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>31</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>45372</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3214,6 +3214,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>nyreny</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45382</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3197,49 +3197,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cambio medicación</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>nyreny</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>nyreny</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>31</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45382</v>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3171,47 +3171,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cambio medicación</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Deja de tomarse Losartán</t>
+          <t>nyreny</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>45287</v>
-      </c>
-      <c r="F27" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>nyreny</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
         <v>31</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E27" s="4" t="n">
         <v>45382</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3186,6 +3186,34 @@
         <v>45382</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>y65e4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>32</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ppp</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3242,6 +3242,34 @@
         <v>45381</v>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>uiop</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>45393</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3199,77 +3199,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Baja usuario</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>y65e4</t>
+          <t>ppp</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>45371</v>
+        <v>45381</v>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ppp</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45381</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>uiop</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>34</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>45393</v>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cambio</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>34</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45376</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3199,49 +3199,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>Baja usuario</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ppp</t>
+          <t>cambio</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>45381</v>
+        <v>45376</v>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>cambio</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>34</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45376</v>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>yyy</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45414</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,34 +3216,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>yyy</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>35</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45414</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5345tgr4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,34 +3216,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5345tgr4</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>35</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45373</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bsrbr</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45374</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,34 +3216,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>bsrbr</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>35</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45374</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3171,49 +3171,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>Baja usuario</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nyreny</t>
+          <t>cambio</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45382</v>
+        <v>45376</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>cambio</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>34</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45376</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Baja usuario</t>
+          <t>Cambio medicación</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3182,8 +3182,10 @@
       <c r="D27" t="n">
         <v>34</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>45376</v>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>25/03/24</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fijythgkun </t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45377</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,34 +3188,6 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fijythgkun </t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45377</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>kr6y8</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45381</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,34 +3188,6 @@
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>kr6y8</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45381</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3190,6 +3190,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45373</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3213,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>45373</v>
+        <v>45380</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3218,6 +3218,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>h5eqw</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>36</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45405</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>Cambio medicación</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3240,8 +3240,10 @@
       <c r="D29" t="n">
         <v>36</v>
       </c>
-      <c r="E29" s="4" t="n">
-        <v>45405</v>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>23/04/24</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3218,36 +3218,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>h5eqw</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>36</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>23/04/24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cambio</t>
+          <t>rewveqwvt</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3176,46 +3176,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>rewveqwvt</t>
+          <t>hola</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>25/03/24</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45380</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>hola</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45380</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3182,12 +3182,14 @@
       <c r="D27" t="n">
         <v>35</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>45380</v>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>29/03/24</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3190,6 +3190,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ydyd</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45387</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3176,46 +3176,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hola</t>
+          <t>ydyd</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>29/03/24</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45387</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ydyd</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>36</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45387</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45387</v>
+        <v>45426</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3171,19 +3171,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cambio medicación</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ydyd</t>
+          <t>gre</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>36</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>iiiii</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3199,19 +3199,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Baja usuario</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>iiiii</t>
+          <t>hhhhh</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>37</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>45420</v>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,36 +3188,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>hhhhh</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>37</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>08/05/2024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45433</v>
+        <v>45420</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,34 +3161,6 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>gre</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>36</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,6 +3161,34 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vter</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45440</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3186,6 +3186,34 @@
         <v>45440</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>btw4r</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45421</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>j5e</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3171,77 +3171,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cambio medicación</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>vter</t>
+          <t>j5e</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45440</v>
+        <v>45420</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>btw4r</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45421</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>j5e</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3186,6 +3186,34 @@
         <v>45420</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vg54g</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>g53g52</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45433</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,34 +3216,6 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>g53g52</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45433</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>g432g</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45426</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3176,72 +3176,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>j5e</t>
+          <t>g432g</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45420</v>
+        <v>45426</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>vg54g</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>g432g</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45426</v>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3186,6 +3186,34 @@
         <v>45426</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nbyre</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>31</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45425</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,62 +3161,6 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>g432g</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>30</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>45426</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>nbyre</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>31</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45425</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,6 +3161,34 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Baja usuario</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>gh54h</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>wte</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45434</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,62 +3161,6 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Baja usuario</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>gh54h</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>26</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>45419</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>wte</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45434</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3161,6 +3161,34 @@
       </c>
       <c r="F26" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f3421gf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45421</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>77777</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45419</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>19:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gbh5ertwgjiueqw5prhgfowpqrfbhyi	wpfvbhkrw	bfuio	wbvcyhki	hgkfu42ioepbfyu2io	hfd34ui2bcviyfrc 2i4uphfbu2o4fb2yi4pfbiyhwfbpc pwfb 24ugrfhiy24ufbp2i4yufb2uifb24yifg24uifg24iufbg2i4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3171,79 +3171,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Seguimiento</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>f3421gf</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>45421</v>
+        <v>45419</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>77777</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45419</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>gbh5ertwgjiueqw5prhgfowpqrfbhyi	wpfvbhkrw	bfuio	wbvcyhki	hgkfu42ioepbfyu2io	hfd34ui2bcviyfrc 2i4uphfbu2o4fb2yi4pfbiyhwfbpc pwfb 24ugrfhiy24ufbp2i4yufb2uifb24yifg24uifg24iufbg2i4</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ggg</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45420</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,34 +3188,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ggg</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45420</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>gvq3egqe</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45423</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17:30</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3216,6 +3216,34 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vrewq</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>29</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>45432</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,62 +3188,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>gvq3egqe</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45423</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>vrewq</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>29</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>45432</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f4q3fq</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45440</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,34 +3188,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cambio medicación</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>f4q3fq</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45440</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>yy</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45418</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3204,14 +3204,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>yy</t>
+          <t>ee</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>28</v>
       </c>
-      <c r="E28" s="4" t="n">
-        <v>45418</v>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ee</t>
+          <t>ooooo</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>06/05/2024</t>
+          <t>06/05/202024</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,36 +3188,6 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ooooo</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>06/05/202024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>17:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3188,6 +3188,34 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>19:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Seguimiento</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g4rege</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45421</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18:00</t>
         </is>
       </c>
     </row>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,14 +3176,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>77777</t>
+          <t>t5gqqe</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>27</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>45419</v>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>t5gqqe</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>uwu</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>uwu</t>
+          <t>iwi</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>iwi</t>
+          <t>uwuw</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3171,51 +3171,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Seguimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>uwuw</t>
+          <t>g4rege</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>07/05/2024</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>45421</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>22210858B</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seguimiento</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>g4rege</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>45421</v>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -2473,7 +2473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -3186,6 +3186,34 @@
         <v>45421</v>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>22210858B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cambio medicación</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f42j	iowne</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>45441</v>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,14 +3176,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>g4rege</t>
+          <t>55ere</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>28</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>45421</v>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>55ere</t>
+          <t>uwuw</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19620" yWindow="2235" windowWidth="15300" windowHeight="7785" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="familiar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cita" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responsable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grupos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="actividades" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horario" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="familiar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cita" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="medicinas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="responsable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="grupos" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="actividades" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="horario" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>uwuw</t>
+          <t>uwu</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>uwu</t>
+          <t>u</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>uwu</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>uwu</t>
+          <t>holi</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>holi</t>
+          <t>uwu</t>
         </is>
       </c>
       <c r="D27" t="n">

--- a/closecare.xlsx
+++ b/closecare.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>iwi</t>
+          <t>uwu</t>
         </is>
       </c>
       <c r="D27" t="n">
